--- a/03-lab/output/penalty_method_0_0.xlsx
+++ b/03-lab/output/penalty_method_0_0.xlsx
@@ -89,7 +89,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.25</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -109,7 +109,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.125</v>
+        <v>0.044999999999999998</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -129,7 +129,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0625</v>
+        <v>0.0135</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -149,7 +149,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.03125</v>
+        <v>0.0040499999999999998</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>

--- a/03-lab/output/penalty_method_0_0.xlsx
+++ b/03-lab/output/penalty_method_0_0.xlsx
@@ -89,7 +89,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.14999999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -109,7 +109,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.044999999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -129,7 +129,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0135</v>
+        <v>0.0625</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -149,7 +149,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0040499999999999998</v>
+        <v>0.03125</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>

--- a/03-lab/output/penalty_method_0_0.xlsx
+++ b/03-lab/output/penalty_method_0_0.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">r</t>
   </si>
@@ -31,19 +31,25 @@
     <t xml:space="preserve">f(X_min)</t>
   </si>
   <si>
-    <t xml:space="preserve">B(X_min, r)</t>
+    <t xml:space="preserve">B(X_min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b(X_min)</t>
   </si>
   <si>
     <t xml:space="preserve">Iteracijų skaičius</t>
   </si>
   <si>
-    <t xml:space="preserve">Funkcijų iškvietimų skaičius</t>
+    <t xml:space="preserve">Funkcijų skaičiavimų kiekis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;0, 0, 0&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -70,12 +76,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -86,7 +98,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -113,12 +131,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,7 +152,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,44 +189,44 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -250,299 +295,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="A12:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="4" max="4" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="5" max="5" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="6" max="6" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="7" max="7" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="2" max="2" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="3" max="3" width="8.140625" style="1" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
-    <col min="8" max="8" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="8.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2">
+      <c r="A1" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>-0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="B1" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3">
+      <c r="A2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-0</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3">
+      <c r="A3" s="4" t="n">
         <v>0.125</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="B3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3">
+      <c r="A4" s="4" t="n">
         <v>0.0625</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3">
+      <c r="G4" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>0.03125</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3</v>
-      </c>
+      <c r="G5" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="4" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
+      <c r="A7" s="3" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="3" t="str">
-        <f aca="false">"⟨" &amp; B1 &amp; ", " &amp;C1 &amp; ", " &amp; D1 &amp; "⟩"</f>
-        <v>⟨0, 0, 0⟩</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>2</v>
+      <c r="A8" s="3" t="n">
+        <v>0.00390625</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f aca="false">"⟨" &amp; B2 &amp; ", " &amp;C2 &amp; ", " &amp; D2 &amp; "⟩"</f>
-        <v>⟨0, 0, 0⟩</v>
+        <v>0.001953125</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="n">
+        <v>512</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>512</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
+        <v>0.0009765625</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
         <v>0.125</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <f aca="false">"⟨" &amp; B3 &amp; ", " &amp;C3 &amp; ", " &amp; D3 &amp; "⟩"</f>
-        <v>⟨0, 0, 0⟩</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="B15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="E15" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
         <v>0.0625</v>
       </c>
-      <c r="B11" s="3" t="str">
-        <f aca="false">"⟨" &amp; B4 &amp; ", " &amp;C4 &amp; ", " &amp; D4 &amp; "⟩"</f>
-        <v>⟨0, 0, 0⟩</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="E16" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
         <v>0.03125</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <f aca="false">"⟨" &amp; B5 &amp; ", " &amp;C5 &amp; ", " &amp; D5 &amp; "⟩"</f>
-        <v>⟨0, 0, 0⟩</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0"/>
+      <c r="E17" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51181102362205" footer="0.51181102362205"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false">
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>

--- a/03-lab/output/penalty_method_0_0.xlsx
+++ b/03-lab/output/penalty_method_0_0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">r</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Funkcijų skaičiavimų kiekis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0, 0, 0&gt;</t>
   </si>
 </sst>
 </file>
@@ -131,7 +128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,15 +157,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,7 +288,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="A12:G17"/>
@@ -427,7 +416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>0.03125</v>
       </c>
@@ -455,8 +444,6 @@
       <c r="I5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -613,140 +600,145 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9" t="n">
+      <c r="B13" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; B1 &amp;  ", " &amp; C1 &amp;  ", " &amp;D1 &amp; "&gt;"</f>
+        <v>&lt;0, 0, 0&gt;</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="8" t="n">
         <v>0.25</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9" t="n">
+      <c r="B14" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; B2 &amp;  ", " &amp; C2 &amp;  ", " &amp;D2 &amp; "&gt;"</f>
+        <v>&lt;0, 0, 0&gt;</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="9" t="n">
+      <c r="F14" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="8" t="n">
         <v>0.125</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9" t="n">
+      <c r="B15" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; B3 &amp;  ", " &amp; C3 &amp;  ", " &amp;D3 &amp; "&gt;"</f>
+        <v>&lt;0, 0, 0&gt;</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9" t="n">
+      <c r="F15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="8" t="n">
         <v>0.0625</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9" t="n">
+      <c r="B16" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; B4 &amp;  ", " &amp; C4 &amp;  ", " &amp;D4 &amp; "&gt;"</f>
+        <v>&lt;0, 0, 0&gt;</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="F16" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9" t="n">
+      <c r="F16" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="8" t="n">
         <v>0.03125</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="n">
+      <c r="B17" s="8" t="str">
+        <f aca="false"> "&lt;" &amp; B5 &amp;  ", " &amp; C5 &amp;  ", " &amp;D5 &amp; "&gt;"</f>
+        <v>&lt;0, 0, 0&gt;</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="F17" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9" t="n">
+      <c r="F17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8" t="n">
         <v>3</v>
       </c>
     </row>
